--- a/biology/Neurosciences/Joseph_Lévy-Valensi/Joseph_Lévy-Valensi.xlsx
+++ b/biology/Neurosciences/Joseph_Lévy-Valensi/Joseph_Lévy-Valensi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Joseph_L%C3%A9vy-Valensi</t>
+          <t>Joseph_Lévy-Valensi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Lévy-Valensi est un neuropsychiatre, professeur à la faculté de médecine de Paris et historien de la médecine français[1]. Il est né à Marseille le 28 octobre 1879 et mort assassiné au camp de concentration d'Auschwitz, le 25 novembre 1943[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Lévy-Valensi est un neuropsychiatre, professeur à la faculté de médecine de Paris et historien de la médecine français. Il est né à Marseille le 28 octobre 1879 et mort assassiné au camp de concentration d'Auschwitz, le 25 novembre 1943.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Joseph_L%C3%A9vy-Valensi</t>
+          <t>Joseph_Lévy-Valensi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est nommé interne des hôpitaux de Paris en 1899. Il reçoit la Légion d'Honneur à titre militaire lors de la Première Guerre Mondiale, conflit au cours duquel il a été blessé. En 1929, il est nommé professeur agrégé de médecine et exerce auprès du professeur Henri Claude à la CMME (clinique des maladies mentales et de l'encéphale) de l'hôpital Sainte-Anne, à Paris. En 1939, il devient historien de la médecine mais il est à nouveau mobilisé. En 1942, malgré les interdictions fixées par le statut des juifs en 1940-1941, son nom est proposé par le conseil de faculté pour la chaire de la CMME. Il se réfugie à Nice mais est arrêté par la rafle collective qui a eu lieu à la gare. Interné à Drancy, il est déporté à Auschwitz où son convoi arrive le 23 septembre 1943. Il est gazé trois jours plus tard[2]. Il habitait au 9 boulevard Delessert à Paris.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est nommé interne des hôpitaux de Paris en 1899. Il reçoit la Légion d'Honneur à titre militaire lors de la Première Guerre Mondiale, conflit au cours duquel il a été blessé. En 1929, il est nommé professeur agrégé de médecine et exerce auprès du professeur Henri Claude à la CMME (clinique des maladies mentales et de l'encéphale) de l'hôpital Sainte-Anne, à Paris. En 1939, il devient historien de la médecine mais il est à nouveau mobilisé. En 1942, malgré les interdictions fixées par le statut des juifs en 1940-1941, son nom est proposé par le conseil de faculté pour la chaire de la CMME. Il se réfugie à Nice mais est arrêté par la rafle collective qui a eu lieu à la gare. Interné à Drancy, il est déporté à Auschwitz où son convoi arrive le 23 septembre 1943. Il est gazé trois jours plus tard. Il habitait au 9 boulevard Delessert à Paris.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Joseph_L%C3%A9vy-Valensi</t>
+          <t>Joseph_Lévy-Valensi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Note sur le suicide du duc de Bourbon (27 août 1830) : étude de psycho-pathologie historique » (Bulletin de la Société française d'Histoire de la médecine, 21; 195-200, 1927.
 Louvel le magnicide. Étude de psycho-pathologie médico-légale (avec Denis Pigot. Paris, G. Doin, extrait de L'Hygiène mentale, XXIV, 5 ; 126-150) : une étude du cas de Louis Pierre Louvel, assassin du duc de Berry en 1929.
@@ -551,7 +567,7 @@
 La médecine et les médecins français au XVIIe siècle, Paris, J.B. Baillière. Avec 51 planches et 86 figures dans le texte, 1933.
 « Mesmer et la suggestion », Congrès des médecins aliénistes (Bruxelles) (C.-R., Paris, Masson, p. 431-434), 1935.
 (Avec Maxime Laignel-Lavastine), Histoire de la presse médicale française aux XVIIe et XVIIIe siècles, Paris, l'Expansion scientifique française, en 1936.
-« La presse médicale française au XVIIe siècle. Les journaux de Nicolas de Blégny », Paris, Paris Médical, 38 p., en 1937[1].</t>
+« La presse médicale française au XVIIe siècle. Les journaux de Nicolas de Blégny », Paris, Paris Médical, 38 p., en 1937.</t>
         </is>
       </c>
     </row>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Joseph_L%C3%A9vy-Valensi</t>
+          <t>Joseph_Lévy-Valensi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Distinctions et postérité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1915 :  Chevalier de la Légion d'honneur[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1915 :  Chevalier de la Légion d'honneur.
 Le bâtiment qui abrite la clinique des maladies mentales et de l'encéphale de Sainte-Anne porte son nom.</t>
         </is>
       </c>
